--- a/public/data/profit/profit_table_liberia.xlsx
+++ b/public/data/profit/profit_table_liberia.xlsx
@@ -1383,13 +1383,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>-131.38</v>
+        <v>17.83</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>-169.05</v>
+        <v>-73.09</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1398,7 +1398,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>380.17</v>
+        <v>274.13</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -1416,7 +1416,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>-309.85</v>
+        <v>-146.78</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -1425,13 +1425,13 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>-191.8</v>
+        <v>-98.98</v>
       </c>
       <c r="V2" t="n">
-        <v>-161.2</v>
+        <v>-53.49</v>
       </c>
       <c r="W2" t="n">
-        <v>897.3</v>
+        <v>1054.87</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -1463,13 +1463,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>-84.96</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>-87.64</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -1478,7 +1478,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>59.85</v>
+        <v>103.8</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>-214.07</v>
+        <v>-90.55</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -1505,13 +1505,13 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>-236.48</v>
+        <v>-140.41</v>
       </c>
       <c r="V3" t="n">
-        <v>-87.04</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>423.3</v>
+        <v>519.36</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -1543,13 +1543,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>-23.62</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>-24.71</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -1558,7 +1558,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>-1.53</v>
+        <v>40.68</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>-197.33</v>
+        <v>-57.68</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -1585,13 +1585,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>-252.09</v>
+        <v>-161.16</v>
       </c>
       <c r="V4" t="n">
-        <v>-24.51</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>369.63</v>
+        <v>460.57</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -1623,13 +1623,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>-130</v>
+        <v>4.19</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>-142.86</v>
+        <v>-45.97</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -1638,7 +1638,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>14.29</v>
+        <v>63.19</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -1656,7 +1656,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>-228.46</v>
+        <v>-66.01</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -1665,13 +1665,13 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>-252.31</v>
+        <v>-120.11</v>
       </c>
       <c r="V5" t="n">
-        <v>-139.6</v>
+        <v>-33.2</v>
       </c>
       <c r="W5" t="n">
-        <v>532.72</v>
+        <v>666.53</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -1703,13 +1703,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>-142.68</v>
+        <v>-9.87</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>-157.56</v>
+        <v>-41.1</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1718,7 +1718,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>-26.28</v>
+        <v>21.85</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>-260.28</v>
+        <v>-99.84</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1745,13 +1745,13 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>-288.45</v>
+        <v>-157.73</v>
       </c>
       <c r="V6" t="n">
-        <v>-154.13</v>
+        <v>-33.97</v>
       </c>
       <c r="W6" t="n">
-        <v>536.59</v>
+        <v>668.5</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1792,52 +1792,52 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>-212.2</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>-26.17</v>
+        <v>41</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>-216.01</v>
+        <v>-69.55</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>-241.35</v>
+        <v>-94.88</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>-213.46</v>
+        <v>-31.24</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>-248.29</v>
+        <v>-101.82</v>
       </c>
       <c r="U7" t="n">
-        <v>-271.04</v>
+        <v>-126.48</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>302.41</v>
+        <v>446.97</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>-183.56</v>
+        <v>0</v>
       </c>
       <c r="Z7" t="n">
         <v>0</v>
@@ -1863,13 +1863,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>-63.61</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>-67.18</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1878,7 +1878,7 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>137.69</v>
+        <v>170.82</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -1896,7 +1896,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>-211.68</v>
+        <v>-93.65</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1905,13 +1905,13 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>-203.25</v>
+        <v>-128.14</v>
       </c>
       <c r="V8" t="n">
-        <v>-66.44</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>695.19</v>
+        <v>770.31</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1943,13 +1943,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>-104.38</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>-107.03</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1958,7 +1958,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>211.64</v>
+        <v>251.98</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -1976,7 +1976,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>-231.68</v>
+        <v>-90.66</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1985,13 +1985,13 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>-195.03</v>
+        <v>-105.9</v>
       </c>
       <c r="V9" t="n">
-        <v>-106.54</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>626.01</v>
+        <v>715.16</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -2023,13 +2023,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>-160.03</v>
+        <v>11.96</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>-192.51</v>
+        <v>-49.14</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -2038,7 +2038,7 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>486.92</v>
+        <v>431.18</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -2056,7 +2056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>-295.61</v>
+        <v>-146.39</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -2065,13 +2065,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>-127.77</v>
+        <v>-32.58</v>
       </c>
       <c r="V10" t="n">
-        <v>-185.01</v>
+        <v>-34.97</v>
       </c>
       <c r="W10" t="n">
-        <v>1129.32</v>
+        <v>1235.6</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -2103,61 +2103,61 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>-110.29</v>
+        <v>49.58</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>-122.31</v>
+        <v>-22.23</v>
       </c>
       <c r="J11" t="n">
-        <v>-131.49</v>
+        <v>-18.41</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>144.7</v>
+        <v>163.89</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>-185.57</v>
+        <v>-63.16</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>-189.82</v>
+        <v>-67.41</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>-209.59</v>
+        <v>-58.98</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>-207.1</v>
+        <v>-84.69</v>
       </c>
       <c r="U11" t="n">
-        <v>-189.5</v>
+        <v>-80.06</v>
       </c>
       <c r="V11" t="n">
-        <v>-122.43</v>
+        <v>-27.73</v>
       </c>
       <c r="W11" t="n">
-        <v>366.67</v>
+        <v>484.36</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>-108.19</v>
+        <v>27.57</v>
       </c>
       <c r="Z11" t="n">
         <v>0</v>
@@ -2183,13 +2183,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>-132.09</v>
+        <v>11.42</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>-145.01</v>
+        <v>-16.3</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -2198,7 +2198,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>387.45</v>
+        <v>410.05</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -2216,7 +2216,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>-229.39</v>
+        <v>-86.76</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -2225,13 +2225,13 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>-134.51</v>
+        <v>-43.89</v>
       </c>
       <c r="V12" t="n">
-        <v>-142.65</v>
+        <v>-11.47</v>
       </c>
       <c r="W12" t="n">
-        <v>408.54</v>
+        <v>500.98</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -2263,13 +2263,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>-109.27</v>
+        <v>14.49</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>-120.74</v>
+        <v>-15.93</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -2278,7 +2278,7 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>250.26</v>
+        <v>280.38</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -2296,7 +2296,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>-231.56</v>
+        <v>-83.93</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -2305,13 +2305,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>-191.58</v>
+        <v>-99.35</v>
       </c>
       <c r="V13" t="n">
-        <v>-118.52</v>
+        <v>-9.99</v>
       </c>
       <c r="W13" t="n">
-        <v>496</v>
+        <v>589.09</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -2343,13 +2343,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>-97.51</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>-96.95</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -2358,7 +2358,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>93.1</v>
+        <v>133.98</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -2376,7 +2376,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>-202.63</v>
+        <v>-66.53</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -2385,13 +2385,13 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>-215.86</v>
+        <v>-126.88</v>
       </c>
       <c r="V14" t="n">
-        <v>-96.07</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>256.28</v>
+        <v>345.29</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -2423,13 +2423,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>-93.5</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>-97.86</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -2438,7 +2438,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>121.64</v>
+        <v>162.49</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -2456,7 +2456,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>-232.62</v>
+        <v>-91.33</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -2465,13 +2465,13 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>-212.79</v>
+        <v>-120.05</v>
       </c>
       <c r="V15" t="n">
-        <v>-96.96</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>349.31</v>
+        <v>442.13</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -2503,13 +2503,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>-136.09</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>-143.33</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -2518,13 +2518,13 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>73.74</v>
+        <v>122.28</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>-242.23</v>
+        <v>-122.02</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -2536,22 +2536,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>-182.67</v>
+        <v>-46.61</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>-251.43</v>
+        <v>-131.22</v>
       </c>
       <c r="U16" t="n">
-        <v>-181.67</v>
+        <v>-77.02</v>
       </c>
       <c r="V16" t="n">
-        <v>-142.32</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>102.06</v>
+        <v>206.71</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -2583,13 +2583,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>-114.05</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>-133.46</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2598,7 +2598,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>66.15</v>
+        <v>103.47</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -2616,7 +2616,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>-233.33</v>
+        <v>-103.84</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -2625,13 +2625,13 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>-247.12</v>
+        <v>-137.04</v>
       </c>
       <c r="V17" t="n">
-        <v>-129.2</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>445.17</v>
+        <v>556.83</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -2663,13 +2663,13 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>-168.28</v>
+        <v>-12.92</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>-186.32</v>
+        <v>-50.53</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2678,7 +2678,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>263.09</v>
+        <v>270.48</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -2696,7 +2696,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>-335.52</v>
+        <v>-182.97</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -2705,13 +2705,13 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>-250.68</v>
+        <v>-159.69</v>
       </c>
       <c r="V18" t="n">
-        <v>-182.3</v>
+        <v>-42.15</v>
       </c>
       <c r="W18" t="n">
-        <v>957.4</v>
+        <v>1051.53</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2743,13 +2743,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>-158.07</v>
+        <v>-10.55</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>-180.65</v>
+        <v>-43.1</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>182.77</v>
+        <v>191.97</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -2776,7 +2776,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>-324.52</v>
+        <v>-194.76</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2785,13 +2785,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>-266.86</v>
+        <v>-164.81</v>
       </c>
       <c r="V19" t="n">
-        <v>-175.47</v>
+        <v>-35.73</v>
       </c>
       <c r="W19" t="n">
-        <v>752.72</v>
+        <v>858.12</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2823,13 +2823,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>-148.37</v>
+        <v>-7.69</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>-182.07</v>
+        <v>-76.48</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2838,7 +2838,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>541.92</v>
+        <v>419.7</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -2856,7 +2856,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>-358.57</v>
+        <v>-244.92</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -2865,13 +2865,13 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>-178.32</v>
+        <v>-117.92</v>
       </c>
       <c r="V20" t="n">
-        <v>-174.5</v>
+        <v>-61.04</v>
       </c>
       <c r="W20" t="n">
-        <v>1124.43</v>
+        <v>1209.01</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>-234.4</v>
+        <v>-146.02</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -2936,7 +2936,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>-250.6</v>
+        <v>-66.87</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -2945,13 +2945,13 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>-355.63</v>
+        <v>-196.21</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>116.7</v>
+        <v>354.01</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -2983,13 +2983,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>-104.1</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>-120.06</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>296.94</v>
+        <v>299.71</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -3016,7 +3016,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>-256.08</v>
+        <v>-126.67</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -3025,13 +3025,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>-184.53</v>
+        <v>-96.27</v>
       </c>
       <c r="V22" t="n">
-        <v>-116.4</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>656.65</v>
+        <v>782.55</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -3063,13 +3063,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>-202.98</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>-234.99</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -3078,7 +3078,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>-246.6</v>
+        <v>-133.64</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -3096,7 +3096,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>-411.53</v>
+        <v>-183.23</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -3105,13 +3105,13 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>-428.89</v>
+        <v>-168.97</v>
       </c>
       <c r="V23" t="n">
-        <v>-228.14</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>-48.51</v>
+        <v>769.22</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -3143,13 +3143,13 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>-182.46</v>
+        <v>16.95</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>-220.88</v>
+        <v>-67.61</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>239.44</v>
+        <v>213.18</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -3176,7 +3176,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>-367.62</v>
+        <v>-171.92</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -3185,13 +3185,13 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>-261.15</v>
+        <v>-111.13</v>
       </c>
       <c r="V24" t="n">
-        <v>-212.66</v>
+        <v>-49.07</v>
       </c>
       <c r="W24" t="n">
-        <v>658.38</v>
+        <v>1005.27</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -3223,13 +3223,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>-126.26</v>
+        <v>2.15</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>-139.32</v>
+        <v>-37.98</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -3238,7 +3238,7 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>213.97</v>
+        <v>239.61</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
@@ -3256,7 +3256,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>-263.89</v>
+        <v>-119.93</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -3265,13 +3265,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>-205.96</v>
+        <v>-112.2</v>
       </c>
       <c r="V25" t="n">
-        <v>-136.59</v>
+        <v>-29.41</v>
       </c>
       <c r="W25" t="n">
-        <v>474.14</v>
+        <v>570.42</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -3303,13 +3303,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>-83.3</v>
+        <v>4.62</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>-98.26</v>
+        <v>-51.36</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -3318,13 +3318,13 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>105.01</v>
+        <v>129.72</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>-217.44</v>
+        <v>-111.34</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -3336,28 +3336,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>-189.56</v>
+        <v>-84.07</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>-252.98</v>
+        <v>-146.89</v>
       </c>
       <c r="U26" t="n">
-        <v>-179.05</v>
+        <v>-86.49</v>
       </c>
       <c r="V26" t="n">
-        <v>-96.77</v>
+        <v>-38.72</v>
       </c>
       <c r="W26" t="n">
-        <v>220.06</v>
+        <v>318.11</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>-120.58</v>
+        <v>14.43</v>
       </c>
       <c r="Z26" t="n">
         <v>0</v>
@@ -3383,13 +3383,13 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>-161.56</v>
+        <v>17.52</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>-190.44</v>
+        <v>-45.99</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -3398,13 +3398,13 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>503.5</v>
+        <v>425.83</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>-238.78</v>
+        <v>-115.96</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -3416,28 +3416,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>-226.45</v>
+        <v>-72.1</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>-320.04</v>
+        <v>-197.23</v>
       </c>
       <c r="U27" t="n">
-        <v>-133.37</v>
+        <v>-47.1</v>
       </c>
       <c r="V27" t="n">
-        <v>-179.89</v>
+        <v>7.93</v>
       </c>
       <c r="W27" t="n">
-        <v>603.3</v>
+        <v>720.32</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>-21.34</v>
+        <v>122.36</v>
       </c>
       <c r="Z27" t="n">
         <v>0</v>
@@ -3460,31 +3460,31 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>3700.52</v>
+        <v>552.3</v>
       </c>
       <c r="G28" t="n">
-        <v>-203.11</v>
+        <v>-13.74</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>-347.64</v>
+        <v>-185.93</v>
       </c>
       <c r="J28" t="n">
-        <v>-473.68</v>
+        <v>-327.05</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>2882.89</v>
+        <v>628.19</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>-70.47</v>
+        <v>12.64</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
@@ -3496,28 +3496,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>-492.69</v>
+        <v>-352.07</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>-579.22</v>
+        <v>-488.98</v>
       </c>
       <c r="U28" t="n">
-        <v>491.68</v>
+        <v>-40.44</v>
       </c>
       <c r="V28" t="n">
-        <v>-316.43</v>
+        <v>-148.45</v>
       </c>
       <c r="W28" t="n">
-        <v>1078.97</v>
+        <v>1164.55</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>-26.23</v>
+        <v>120.4</v>
       </c>
       <c r="Z28" t="n">
         <v>0</v>
@@ -3540,31 +3540,31 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>7871.84</v>
+        <v>1418.08</v>
       </c>
       <c r="G29" t="n">
-        <v>-72.22</v>
+        <v>78.01</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>-469.41</v>
+        <v>-319.18</v>
       </c>
       <c r="J29" t="n">
-        <v>-330.54</v>
+        <v>-237.02</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>10234.7</v>
+        <v>921.06</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1187.75</v>
+        <v>709.99</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -3576,28 +3576,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>-592.54</v>
+        <v>-489.08</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>-636.53</v>
+        <v>-635.45</v>
       </c>
       <c r="U29" t="n">
-        <v>2928.44</v>
+        <v>37.83</v>
       </c>
       <c r="V29" t="n">
-        <v>-251.38</v>
+        <v>-101.16</v>
       </c>
       <c r="W29" t="n">
-        <v>2064.78</v>
+        <v>2116.84</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>435.98</v>
+        <v>529.5</v>
       </c>
       <c r="Z29" t="n">
         <v>0</v>
@@ -3620,31 +3620,31 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>4442.66</v>
+        <v>867.21</v>
       </c>
       <c r="G30" t="n">
-        <v>-174.88</v>
+        <v>-6.45</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>-467.49</v>
+        <v>-299.05</v>
       </c>
       <c r="J30" t="n">
-        <v>-575.28</v>
+        <v>-437.39</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>5754.96</v>
+        <v>797.14</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>-258.73</v>
+        <v>-173.87</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -3656,28 +3656,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>-637.95</v>
+        <v>-521.99</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>-564.15</v>
+        <v>-479.3</v>
       </c>
       <c r="U30" t="n">
-        <v>1296.58</v>
+        <v>-52.06</v>
       </c>
       <c r="V30" t="n">
-        <v>-376.88</v>
+        <v>-208.45</v>
       </c>
       <c r="W30" t="n">
-        <v>1811.35</v>
+        <v>1882.71</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>-274.04</v>
+        <v>-136.15</v>
       </c>
       <c r="Z30" t="n">
         <v>0</v>
@@ -3703,13 +3703,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>-158.07</v>
+        <v>6.26</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>-448.62</v>
+        <v>-284.28</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3718,7 +3718,7 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>4098.2</v>
+        <v>659.96</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -3736,7 +3736,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>-605.84</v>
+        <v>-492.85</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3745,13 +3745,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>902.31</v>
+        <v>-72.82</v>
       </c>
       <c r="V31" t="n">
-        <v>-378.62</v>
+        <v>-214.28</v>
       </c>
       <c r="W31" t="n">
-        <v>2225.04</v>
+        <v>2294.57</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3783,13 +3783,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>-200.71</v>
+        <v>17.63</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>-535.05</v>
+        <v>-366.91</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3798,7 +3798,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>11519.47</v>
+        <v>449.62</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -3816,7 +3816,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>-664.84</v>
+        <v>-501.28</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3825,13 +3825,13 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>3581.92</v>
+        <v>-192.78</v>
       </c>
       <c r="V32" t="n">
-        <v>-453.44</v>
+        <v>-271.75</v>
       </c>
       <c r="W32" t="n">
-        <v>3418.57</v>
+        <v>3522.07</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3863,13 +3863,13 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>-139.14</v>
+        <v>63.5</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>-403.43</v>
+        <v>-263.06</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3878,7 +3878,7 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>9889.73</v>
+        <v>586.2</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -3896,7 +3896,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>-511.51</v>
+        <v>-392.01</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -3905,13 +3905,13 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>3025.12</v>
+        <v>-25.67</v>
       </c>
       <c r="V33" t="n">
-        <v>-339.55</v>
+        <v>-183.87</v>
       </c>
       <c r="W33" t="n">
-        <v>1980.48</v>
+        <v>2206.75</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>-183.93</v>
+        <v>43.33</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>-445.53</v>
+        <v>-294.05</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3958,7 +3958,7 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>9597.81</v>
+        <v>318.51</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
@@ -3976,7 +3976,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>-526.09</v>
+        <v>-401.32</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3985,13 +3985,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>3018.79</v>
+        <v>-154.14</v>
       </c>
       <c r="V34" t="n">
-        <v>-382.8</v>
+        <v>-212.88</v>
       </c>
       <c r="W34" t="n">
-        <v>1971.98</v>
+        <v>2348.79</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -4023,61 +4023,61 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>-66.77</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>-68.2</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>-131.3</v>
+        <v>-17.54</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>284.77</v>
+        <v>324.68</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>-162</v>
+        <v>-75.26</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>-192.21</v>
+        <v>-108.35</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>-153.04</v>
+        <v>-44.02</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>-187.89</v>
+        <v>-101.15</v>
       </c>
       <c r="U35" t="n">
-        <v>-147.55</v>
+        <v>-60.08</v>
       </c>
       <c r="V35" t="n">
-        <v>-67.71</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>425.02</v>
+        <v>512.51</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>-78.47</v>
+        <v>47.35</v>
       </c>
       <c r="Z35" t="n">
         <v>0</v>
@@ -4103,61 +4103,61 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>-121.51</v>
+        <v>8.66</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>-124.87</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>-160.93</v>
+        <v>-31.92</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>276.87</v>
+        <v>312.76</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>-177.15</v>
+        <v>-84.5</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>-195.31</v>
+        <v>-111.69</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>-211.9</v>
+        <v>-64.33</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>-221.04</v>
+        <v>-128.38</v>
       </c>
       <c r="U36" t="n">
-        <v>-150.84</v>
+        <v>-54.67</v>
       </c>
       <c r="V36" t="n">
-        <v>-124.09</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>397.51</v>
+        <v>494.69</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>-69.54</v>
+        <v>59.47</v>
       </c>
       <c r="Z36" t="n">
         <v>0</v>
@@ -4183,13 +4183,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>-112.84</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>-114.94</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -4198,13 +4198,13 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>-50.64</v>
+        <v>3.1</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>-204.76</v>
+        <v>-78.64</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -4216,22 +4216,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>-181.16</v>
+        <v>-34.82</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>-226.06</v>
+        <v>-99.94</v>
       </c>
       <c r="U37" t="n">
-        <v>-215.29</v>
+        <v>-99.34</v>
       </c>
       <c r="V37" t="n">
-        <v>-114.53</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>58.4</v>
+        <v>174.36</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -4263,61 +4263,61 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>-111.07</v>
+        <v>33.72</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>-124.02</v>
+        <v>-24.81</v>
       </c>
       <c r="J38" t="n">
-        <v>-142.29</v>
+        <v>-13.86</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>438.06</v>
+        <v>399.52</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>-175.02</v>
+        <v>-73.71</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>-188.05</v>
+        <v>-86.74</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>-209.95</v>
+        <v>-70.81</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>-203.33</v>
+        <v>-102.02</v>
       </c>
       <c r="U38" t="n">
-        <v>-103.98</v>
+        <v>-23.38</v>
       </c>
       <c r="V38" t="n">
-        <v>-122.55</v>
+        <v>-22.33</v>
       </c>
       <c r="W38" t="n">
-        <v>447.38</v>
+        <v>544.36</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>-113.07</v>
+        <v>24.73</v>
       </c>
       <c r="Z38" t="n">
         <v>0</v>
@@ -4343,61 +4343,61 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>-122.05</v>
+        <v>-9.51</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>-122.09</v>
+        <v>-58.67</v>
       </c>
       <c r="J39" t="n">
-        <v>-139.22</v>
+        <v>-24.47</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>513.88</v>
+        <v>529.7</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>-114.9</v>
+        <v>-46.61</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>-175.86</v>
+        <v>-107.58</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>-202.75</v>
+        <v>-83.12</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>-191.27</v>
+        <v>-122.99</v>
       </c>
       <c r="U39" t="n">
-        <v>-100.35</v>
+        <v>-24.16</v>
       </c>
       <c r="V39" t="n">
-        <v>-119.97</v>
+        <v>-45.35</v>
       </c>
       <c r="W39" t="n">
-        <v>470.05</v>
+        <v>548.33</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>32.59</v>
+        <v>147.53</v>
       </c>
       <c r="Z39" t="n">
         <v>0</v>
@@ -4423,61 +4423,61 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>-125.74</v>
+        <v>4.27</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>-126.73</v>
+        <v>-14.43</v>
       </c>
       <c r="J40" t="n">
-        <v>-129.27</v>
+        <v>0.78</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>445.89</v>
+        <v>462.18</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>-153.6</v>
+        <v>-68.68</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>-205.31</v>
+        <v>-120.39</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>-205.89</v>
+        <v>-74.55</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>-228.54</v>
+        <v>-143.62</v>
       </c>
       <c r="U40" t="n">
-        <v>-114.99</v>
+        <v>-28.71</v>
       </c>
       <c r="V40" t="n">
-        <v>-127.17</v>
+        <v>-9.26</v>
       </c>
       <c r="W40" t="n">
-        <v>403.89</v>
+        <v>493.69</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>-60.62</v>
+        <v>78.62</v>
       </c>
       <c r="Z40" t="n">
         <v>0</v>
@@ -4518,7 +4518,7 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>-217.32</v>
+        <v>-166.73</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -4536,7 +4536,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>-141.94</v>
+        <v>-58.58</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -4545,13 +4545,13 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>-306.22</v>
+        <v>-197.31</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>304.76</v>
+        <v>413.68</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -4583,13 +4583,13 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>-139.25</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>-155.02</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -4598,7 +4598,7 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>475.41</v>
+        <v>490.22</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -4616,7 +4616,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>-323.93</v>
+        <v>-185.13</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -4625,13 +4625,13 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>-173.32</v>
+        <v>-88.67</v>
       </c>
       <c r="V42" t="n">
-        <v>-151.66</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>1302.3</v>
+        <v>1387.88</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -4663,13 +4663,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>-69.04</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>-70.78</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -4678,7 +4678,7 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>-17.36</v>
+        <v>26.26</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
@@ -4696,7 +4696,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>-278.36</v>
+        <v>-130.52</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -4705,13 +4705,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>-331.12</v>
+        <v>-235.74</v>
       </c>
       <c r="V43" t="n">
-        <v>-70.41</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>749.63</v>
+        <v>845.02</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -4758,7 +4758,7 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>-302.75</v>
+        <v>-236.47</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -4776,7 +4776,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>-148.47</v>
+        <v>-51.72</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4785,13 +4785,13 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>-325.12</v>
+        <v>-211.45</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>142.74</v>
+        <v>312.23</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4823,13 +4823,13 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>-176.84</v>
+        <v>11.64</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>-454.99</v>
+        <v>-266.51</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4838,7 +4838,7 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>3033.55</v>
+        <v>577.86</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -4856,7 +4856,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>-602.81</v>
+        <v>-473.23</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -4865,13 +4865,13 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>550.44</v>
+        <v>-108</v>
       </c>
       <c r="V45" t="n">
-        <v>-390.07</v>
+        <v>-201.59</v>
       </c>
       <c r="W45" t="n">
-        <v>2827.53</v>
+        <v>2907.27</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -4900,31 +4900,31 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>2740.99</v>
+        <v>833.49</v>
       </c>
       <c r="G46" t="n">
-        <v>-188.17</v>
+        <v>28.16</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>-530.03</v>
+        <v>-328.36</v>
       </c>
       <c r="J46" t="n">
-        <v>-474.82</v>
+        <v>-297.16</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>3194.38</v>
+        <v>506.68</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>-55.43</v>
+        <v>36.39</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
@@ -4936,7 +4936,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>-668.84</v>
+        <v>-533.37</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4945,13 +4945,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>498.69</v>
+        <v>-174.86</v>
       </c>
       <c r="V46" t="n">
-        <v>-358.81</v>
+        <v>-148.55</v>
       </c>
       <c r="W46" t="n">
-        <v>2821.5</v>
+        <v>3074.02</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -5078,7 +5078,7 @@
         <v>0</v>
       </c>
       <c r="L48" t="n">
-        <v>-517.29</v>
+        <v>-386.34</v>
       </c>
       <c r="M48" t="n">
         <v>0</v>
@@ -5096,7 +5096,7 @@
         <v>0</v>
       </c>
       <c r="R48" t="n">
-        <v>-139.13</v>
+        <v>0</v>
       </c>
       <c r="S48" t="n">
         <v>0</v>
@@ -5105,13 +5105,13 @@
         <v>0</v>
       </c>
       <c r="U48" t="n">
-        <v>-399.28</v>
+        <v>-208.87</v>
       </c>
       <c r="V48" t="n">
         <v>0</v>
       </c>
       <c r="W48" t="n">
-        <v>-68.11</v>
+        <v>212.38</v>
       </c>
       <c r="X48" t="n">
         <v>0</v>
@@ -5143,13 +5143,13 @@
         <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>-135.01</v>
+        <v>42.39</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>-240.47</v>
+        <v>-96.38</v>
       </c>
       <c r="J49" t="n">
         <v>0</v>
@@ -5158,7 +5158,7 @@
         <v>0</v>
       </c>
       <c r="L49" t="n">
-        <v>203.19</v>
+        <v>157.22</v>
       </c>
       <c r="M49" t="n">
         <v>0</v>
@@ -5176,7 +5176,7 @@
         <v>0</v>
       </c>
       <c r="R49" t="n">
-        <v>-245.59</v>
+        <v>-268.45</v>
       </c>
       <c r="S49" t="n">
         <v>0</v>
@@ -5185,13 +5185,13 @@
         <v>0</v>
       </c>
       <c r="U49" t="n">
-        <v>-168.11</v>
+        <v>-97.77</v>
       </c>
       <c r="V49" t="n">
-        <v>-218.66</v>
+        <v>-66.04</v>
       </c>
       <c r="W49" t="n">
-        <v>735.96</v>
+        <v>864.18</v>
       </c>
       <c r="X49" t="n">
         <v>0</v>
@@ -5223,13 +5223,13 @@
         <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>-42.1</v>
+        <v>0</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>-42.53</v>
+        <v>0</v>
       </c>
       <c r="J50" t="n">
         <v>0</v>
@@ -5238,7 +5238,7 @@
         <v>0</v>
       </c>
       <c r="L50" t="n">
-        <v>-111.42</v>
+        <v>-63.27</v>
       </c>
       <c r="M50" t="n">
         <v>0</v>
@@ -5256,7 +5256,7 @@
         <v>0</v>
       </c>
       <c r="R50" t="n">
-        <v>-189.43</v>
+        <v>-86.78</v>
       </c>
       <c r="S50" t="n">
         <v>0</v>
@@ -5265,13 +5265,13 @@
         <v>0</v>
       </c>
       <c r="U50" t="n">
-        <v>-293.25</v>
+        <v>-189.56</v>
       </c>
       <c r="V50" t="n">
-        <v>-42.44</v>
+        <v>0</v>
       </c>
       <c r="W50" t="n">
-        <v>379.08</v>
+        <v>482.76</v>
       </c>
       <c r="X50" t="n">
         <v>0</v>
@@ -5300,7 +5300,7 @@
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>-144.68</v>
+        <v>-62.21</v>
       </c>
       <c r="G51" t="n">
         <v>0</v>
@@ -5312,19 +5312,19 @@
         <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>-166.9</v>
+        <v>0</v>
       </c>
       <c r="K51" t="n">
         <v>0</v>
       </c>
       <c r="L51" t="n">
-        <v>-203.65</v>
+        <v>-115.32</v>
       </c>
       <c r="M51" t="n">
         <v>0</v>
       </c>
       <c r="N51" t="n">
-        <v>-260.53</v>
+        <v>-83.38</v>
       </c>
       <c r="O51" t="n">
         <v>0</v>
@@ -5336,7 +5336,7 @@
         <v>0</v>
       </c>
       <c r="R51" t="n">
-        <v>-159.72</v>
+        <v>0</v>
       </c>
       <c r="S51" t="n">
         <v>0</v>
@@ -5345,19 +5345,19 @@
         <v>0</v>
       </c>
       <c r="U51" t="n">
-        <v>-278.19</v>
+        <v>-90.13</v>
       </c>
       <c r="V51" t="n">
         <v>0</v>
       </c>
       <c r="W51" t="n">
-        <v>-54.01</v>
+        <v>134.04</v>
       </c>
       <c r="X51" t="n">
         <v>0</v>
       </c>
       <c r="Y51" t="n">
-        <v>-165.85</v>
+        <v>0</v>
       </c>
       <c r="Z51" t="n">
         <v>0</v>
@@ -5398,7 +5398,7 @@
         <v>0</v>
       </c>
       <c r="L52" t="n">
-        <v>-175.08</v>
+        <v>-101.19</v>
       </c>
       <c r="M52" t="n">
         <v>0</v>
@@ -5416,7 +5416,7 @@
         <v>0</v>
       </c>
       <c r="R52" t="n">
-        <v>-232.99</v>
+        <v>-31.55</v>
       </c>
       <c r="S52" t="n">
         <v>0</v>
@@ -5425,13 +5425,13 @@
         <v>0</v>
       </c>
       <c r="U52" t="n">
-        <v>-323.06</v>
+        <v>-163.93</v>
       </c>
       <c r="V52" t="n">
         <v>0</v>
       </c>
       <c r="W52" t="n">
-        <v>346.51</v>
+        <v>505.64</v>
       </c>
       <c r="X52" t="n">
         <v>0</v>
@@ -5460,64 +5460,64 @@
         <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>-324.01</v>
+        <v>-264.6</v>
       </c>
       <c r="G53" t="n">
-        <v>-54.63</v>
+        <v>0</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>-56.6</v>
+        <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>-103.1</v>
+        <v>-60.07</v>
       </c>
       <c r="K53" t="n">
         <v>0</v>
       </c>
       <c r="L53" t="n">
-        <v>-65.18</v>
+        <v>8.21</v>
       </c>
       <c r="M53" t="n">
         <v>0</v>
       </c>
       <c r="N53" t="n">
-        <v>-169.17</v>
+        <v>-61.73</v>
       </c>
       <c r="O53" t="n">
         <v>0</v>
       </c>
       <c r="P53" t="n">
-        <v>-168.86</v>
+        <v>-66.54</v>
       </c>
       <c r="Q53" t="n">
-        <v>-91.53</v>
+        <v>77.67</v>
       </c>
       <c r="R53" t="n">
-        <v>-145.66</v>
+        <v>-55.98</v>
       </c>
       <c r="S53" t="n">
         <v>0</v>
       </c>
       <c r="T53" t="n">
-        <v>-169.31</v>
+        <v>-67.19</v>
       </c>
       <c r="U53" t="n">
-        <v>-222.64</v>
+        <v>-90.14</v>
       </c>
       <c r="V53" t="n">
-        <v>-54.52</v>
+        <v>0</v>
       </c>
       <c r="W53" t="n">
-        <v>-54.84</v>
+        <v>113.7</v>
       </c>
       <c r="X53" t="n">
         <v>0</v>
       </c>
       <c r="Y53" t="n">
-        <v>-86.25</v>
+        <v>2.51</v>
       </c>
       <c r="Z53" t="n">
         <v>0</v>
@@ -5540,31 +5540,31 @@
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>61.67</v>
+        <v>116.52</v>
       </c>
       <c r="G54" t="n">
-        <v>-220.32</v>
+        <v>-25.41</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>-256.58</v>
+        <v>-105.36</v>
       </c>
       <c r="J54" t="n">
-        <v>-347.13</v>
+        <v>-104.28</v>
       </c>
       <c r="K54" t="n">
         <v>0</v>
       </c>
       <c r="L54" t="n">
-        <v>73.8</v>
+        <v>91.13</v>
       </c>
       <c r="M54" t="n">
         <v>0</v>
       </c>
       <c r="N54" t="n">
-        <v>-395.53</v>
+        <v>-237.23</v>
       </c>
       <c r="O54" t="n">
         <v>0</v>
@@ -5576,28 +5576,28 @@
         <v>0</v>
       </c>
       <c r="R54" t="n">
-        <v>-344.61</v>
+        <v>-171.21</v>
       </c>
       <c r="S54" t="n">
         <v>0</v>
       </c>
       <c r="T54" t="n">
-        <v>-509.72</v>
+        <v>-351.42</v>
       </c>
       <c r="U54" t="n">
-        <v>-317.97</v>
+        <v>-181.43</v>
       </c>
       <c r="V54" t="n">
-        <v>-247.3</v>
+        <v>-86.2</v>
       </c>
       <c r="W54" t="n">
-        <v>375.83</v>
+        <v>517.48</v>
       </c>
       <c r="X54" t="n">
         <v>0</v>
       </c>
       <c r="Y54" t="n">
-        <v>-292.96</v>
+        <v>-50.1</v>
       </c>
       <c r="Z54" t="n">
         <v>0</v>
@@ -5623,13 +5623,13 @@
         <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>-165</v>
+        <v>0</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>-172.65</v>
+        <v>0</v>
       </c>
       <c r="J55" t="n">
         <v>0</v>
@@ -5638,7 +5638,7 @@
         <v>0</v>
       </c>
       <c r="L55" t="n">
-        <v>-129.08</v>
+        <v>-59.76</v>
       </c>
       <c r="M55" t="n">
         <v>0</v>
@@ -5656,7 +5656,7 @@
         <v>0</v>
       </c>
       <c r="R55" t="n">
-        <v>-303.17</v>
+        <v>-71.89</v>
       </c>
       <c r="S55" t="n">
         <v>0</v>
@@ -5665,13 +5665,13 @@
         <v>0</v>
       </c>
       <c r="U55" t="n">
-        <v>-360.56</v>
+        <v>-210.01</v>
       </c>
       <c r="V55" t="n">
-        <v>-171.18</v>
+        <v>0</v>
       </c>
       <c r="W55" t="n">
-        <v>419.75</v>
+        <v>570.3</v>
       </c>
       <c r="X55" t="n">
         <v>0</v>
@@ -5700,31 +5700,31 @@
         <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>46.1</v>
+        <v>40.58</v>
       </c>
       <c r="G56" t="n">
-        <v>-232.78</v>
+        <v>0</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>-257.93</v>
+        <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>-294.87</v>
+        <v>-230.67</v>
       </c>
       <c r="K56" t="n">
         <v>0</v>
       </c>
       <c r="L56" t="n">
-        <v>-131.86</v>
+        <v>-74.71</v>
       </c>
       <c r="M56" t="n">
         <v>0</v>
       </c>
       <c r="N56" t="n">
-        <v>-358.47</v>
+        <v>-212.24</v>
       </c>
       <c r="O56" t="n">
         <v>0</v>
@@ -5736,28 +5736,28 @@
         <v>0</v>
       </c>
       <c r="R56" t="n">
-        <v>-241.81</v>
+        <v>-306.15</v>
       </c>
       <c r="S56" t="n">
         <v>0</v>
       </c>
       <c r="T56" t="n">
-        <v>-623.98</v>
+        <v>-488</v>
       </c>
       <c r="U56" t="n">
-        <v>-278.55</v>
+        <v>-113.8</v>
       </c>
       <c r="V56" t="n">
-        <v>-161.4</v>
+        <v>0</v>
       </c>
       <c r="W56" t="n">
-        <v>-5.94</v>
+        <v>164.22</v>
       </c>
       <c r="X56" t="n">
         <v>0</v>
       </c>
       <c r="Y56" t="n">
-        <v>-249.46</v>
+        <v>-141.09</v>
       </c>
       <c r="Z56" t="n">
         <v>0</v>
@@ -5783,13 +5783,13 @@
         <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>-122.1</v>
+        <v>44.61</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>-336.11</v>
+        <v>-167.81</v>
       </c>
       <c r="J57" t="n">
         <v>0</v>
@@ -5798,7 +5798,7 @@
         <v>0</v>
       </c>
       <c r="L57" t="n">
-        <v>6506.22</v>
+        <v>881.5</v>
       </c>
       <c r="M57" t="n">
         <v>0</v>
@@ -5816,7 +5816,7 @@
         <v>0</v>
       </c>
       <c r="R57" t="n">
-        <v>-450.64</v>
+        <v>-334.93</v>
       </c>
       <c r="S57" t="n">
         <v>0</v>
@@ -5825,13 +5825,13 @@
         <v>0</v>
       </c>
       <c r="U57" t="n">
-        <v>1756.24</v>
+        <v>124.72</v>
       </c>
       <c r="V57" t="n">
-        <v>-287.36</v>
+        <v>-119.05</v>
       </c>
       <c r="W57" t="n">
-        <v>1562.01</v>
+        <v>1632.54</v>
       </c>
       <c r="X57" t="n">
         <v>0</v>
@@ -5860,31 +5860,31 @@
         <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>5670.73</v>
+        <v>1571.53</v>
       </c>
       <c r="G58" t="n">
-        <v>-120.51</v>
+        <v>66.25</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>-502.21</v>
+        <v>-315.45</v>
       </c>
       <c r="J58" t="n">
-        <v>-438.43</v>
+        <v>-303.22</v>
       </c>
       <c r="K58" t="n">
         <v>0</v>
       </c>
       <c r="L58" t="n">
-        <v>6958.49</v>
+        <v>961.09</v>
       </c>
       <c r="M58" t="n">
         <v>0</v>
       </c>
       <c r="N58" t="n">
-        <v>741.18</v>
+        <v>602.02</v>
       </c>
       <c r="O58" t="n">
         <v>0</v>
@@ -5896,7 +5896,7 @@
         <v>0</v>
       </c>
       <c r="R58" t="n">
-        <v>-705.01</v>
+        <v>-576.41</v>
       </c>
       <c r="S58" t="n">
         <v>0</v>
@@ -5905,19 +5905,19 @@
         <v>0</v>
       </c>
       <c r="U58" t="n">
-        <v>1805.66</v>
+        <v>38.6</v>
       </c>
       <c r="V58" t="n">
-        <v>-280.83</v>
+        <v>-94.06</v>
       </c>
       <c r="W58" t="n">
-        <v>2204.26</v>
+        <v>2282.7</v>
       </c>
       <c r="X58" t="n">
         <v>0</v>
       </c>
       <c r="Y58" t="n">
-        <v>393.43</v>
+        <v>526.07</v>
       </c>
       <c r="Z58" t="n">
         <v>0</v>
@@ -5943,13 +5943,13 @@
         <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>-177.01</v>
+        <v>-12.23</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>-233.48</v>
+        <v>-109.76</v>
       </c>
       <c r="J59" t="n">
         <v>0</v>
@@ -5958,7 +5958,7 @@
         <v>0</v>
       </c>
       <c r="L59" t="n">
-        <v>613.93</v>
+        <v>363.45</v>
       </c>
       <c r="M59" t="n">
         <v>0</v>
@@ -5976,7 +5976,7 @@
         <v>0</v>
       </c>
       <c r="R59" t="n">
-        <v>-382.72</v>
+        <v>-234.64</v>
       </c>
       <c r="S59" t="n">
         <v>0</v>
@@ -5985,13 +5985,13 @@
         <v>0</v>
       </c>
       <c r="U59" t="n">
-        <v>-160.95</v>
+        <v>-115.17</v>
       </c>
       <c r="V59" t="n">
-        <v>-220.5</v>
+        <v>-86.56</v>
       </c>
       <c r="W59" t="n">
-        <v>831.34</v>
+        <v>931.41</v>
       </c>
       <c r="X59" t="n">
         <v>0</v>
@@ -6023,13 +6023,13 @@
         <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>-163.36</v>
+        <v>-4.66</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>-230.3</v>
+        <v>-83.42</v>
       </c>
       <c r="J60" t="n">
         <v>0</v>
@@ -6038,7 +6038,7 @@
         <v>0</v>
       </c>
       <c r="L60" t="n">
-        <v>979.12</v>
+        <v>599.26</v>
       </c>
       <c r="M60" t="n">
         <v>0</v>
@@ -6056,7 +6056,7 @@
         <v>0</v>
       </c>
       <c r="R60" t="n">
-        <v>-361.47</v>
+        <v>-248.84</v>
       </c>
       <c r="S60" t="n">
         <v>0</v>
@@ -6065,13 +6065,13 @@
         <v>0</v>
       </c>
       <c r="U60" t="n">
-        <v>-30.2</v>
+        <v>-23.49</v>
       </c>
       <c r="V60" t="n">
-        <v>-215.08</v>
+        <v>-64.99</v>
       </c>
       <c r="W60" t="n">
-        <v>992.24</v>
+        <v>1072.11</v>
       </c>
       <c r="X60" t="n">
         <v>0</v>
@@ -6103,13 +6103,13 @@
         <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>-172.12</v>
+        <v>8.46</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>-253.87</v>
+        <v>-88.36</v>
       </c>
       <c r="J61" t="n">
         <v>0</v>
@@ -6118,7 +6118,7 @@
         <v>0</v>
       </c>
       <c r="L61" t="n">
-        <v>1854.14</v>
+        <v>730.11</v>
       </c>
       <c r="M61" t="n">
         <v>0</v>
@@ -6136,7 +6136,7 @@
         <v>0</v>
       </c>
       <c r="R61" t="n">
-        <v>-373.84</v>
+        <v>-244.81</v>
       </c>
       <c r="S61" t="n">
         <v>0</v>
@@ -6145,13 +6145,13 @@
         <v>0</v>
       </c>
       <c r="U61" t="n">
-        <v>260.51</v>
+        <v>24.4</v>
       </c>
       <c r="V61" t="n">
-        <v>-236.31</v>
+        <v>-66.95</v>
       </c>
       <c r="W61" t="n">
-        <v>904.64</v>
+        <v>986.48</v>
       </c>
       <c r="X61" t="n">
         <v>0</v>
@@ -6183,13 +6183,13 @@
         <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>-334.84</v>
+        <v>-2.78</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>-390.75</v>
+        <v>-31.59</v>
       </c>
       <c r="J62" t="n">
         <v>0</v>
@@ -6198,7 +6198,7 @@
         <v>0</v>
       </c>
       <c r="L62" t="n">
-        <v>599.48</v>
+        <v>571.28</v>
       </c>
       <c r="M62" t="n">
         <v>0</v>
@@ -6216,7 +6216,7 @@
         <v>0</v>
       </c>
       <c r="R62" t="n">
-        <v>-519.6</v>
+        <v>-257.86</v>
       </c>
       <c r="S62" t="n">
         <v>0</v>
@@ -6225,13 +6225,13 @@
         <v>0</v>
       </c>
       <c r="U62" t="n">
-        <v>-181.49</v>
+        <v>3.21</v>
       </c>
       <c r="V62" t="n">
-        <v>-378.95</v>
+        <v>-25.24</v>
       </c>
       <c r="W62" t="n">
-        <v>346.68</v>
+        <v>531.37</v>
       </c>
       <c r="X62" t="n">
         <v>0</v>
@@ -6263,13 +6263,13 @@
         <v>0</v>
       </c>
       <c r="G63" t="n">
-        <v>-203.35</v>
+        <v>0</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>-204.23</v>
+        <v>0</v>
       </c>
       <c r="J63" t="n">
         <v>0</v>
@@ -6278,7 +6278,7 @@
         <v>0</v>
       </c>
       <c r="L63" t="n">
-        <v>-290.29</v>
+        <v>-153.06</v>
       </c>
       <c r="M63" t="n">
         <v>0</v>
@@ -6296,7 +6296,7 @@
         <v>0</v>
       </c>
       <c r="R63" t="n">
-        <v>-388.1</v>
+        <v>-99.46</v>
       </c>
       <c r="S63" t="n">
         <v>0</v>
@@ -6305,13 +6305,13 @@
         <v>0</v>
       </c>
       <c r="U63" t="n">
-        <v>-472.68</v>
+        <v>-178.71</v>
       </c>
       <c r="V63" t="n">
-        <v>-204.04</v>
+        <v>0</v>
       </c>
       <c r="W63" t="n">
-        <v>1.85</v>
+        <v>565.54</v>
       </c>
       <c r="X63" t="n">
         <v>0</v>
@@ -6343,13 +6343,13 @@
         <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>-60.12</v>
+        <v>85.22</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>-291.67</v>
+        <v>-146.33</v>
       </c>
       <c r="J64" t="n">
         <v>0</v>
@@ -6358,7 +6358,7 @@
         <v>0</v>
       </c>
       <c r="L64" t="n">
-        <v>5365.82</v>
+        <v>1206.83</v>
       </c>
       <c r="M64" t="n">
         <v>0</v>
@@ -6376,7 +6376,7 @@
         <v>0</v>
       </c>
       <c r="R64" t="n">
-        <v>-336.72</v>
+        <v>-236.65</v>
       </c>
       <c r="S64" t="n">
         <v>0</v>
@@ -6385,13 +6385,13 @@
         <v>0</v>
       </c>
       <c r="U64" t="n">
-        <v>1366.49</v>
+        <v>264.18</v>
       </c>
       <c r="V64" t="n">
-        <v>-237.76</v>
+        <v>-92.42</v>
       </c>
       <c r="W64" t="n">
-        <v>1609.78</v>
+        <v>1671.36</v>
       </c>
       <c r="X64" t="n">
         <v>0</v>
@@ -6423,13 +6423,13 @@
         <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>-163.41</v>
+        <v>18.84</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>-284.74</v>
+        <v>-102.49</v>
       </c>
       <c r="J65" t="n">
         <v>0</v>
@@ -6438,7 +6438,7 @@
         <v>0</v>
       </c>
       <c r="L65" t="n">
-        <v>2826.29</v>
+        <v>928.77</v>
       </c>
       <c r="M65" t="n">
         <v>0</v>
@@ -6456,7 +6456,7 @@
         <v>0</v>
       </c>
       <c r="R65" t="n">
-        <v>-397.8</v>
+        <v>-270.72</v>
       </c>
       <c r="S65" t="n">
         <v>0</v>
@@ -6465,13 +6465,13 @@
         <v>0</v>
       </c>
       <c r="U65" t="n">
-        <v>559.47</v>
+        <v>114.44</v>
       </c>
       <c r="V65" t="n">
-        <v>-257.96</v>
+        <v>-75.71</v>
       </c>
       <c r="W65" t="n">
-        <v>1270.75</v>
+        <v>1348.96</v>
       </c>
       <c r="X65" t="n">
         <v>0</v>
@@ -6503,13 +6503,13 @@
         <v>0</v>
       </c>
       <c r="G66" t="n">
-        <v>-197.07</v>
+        <v>18.8</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>-335.99</v>
+        <v>-258.16</v>
       </c>
       <c r="J66" t="n">
         <v>0</v>
@@ -6518,7 +6518,7 @@
         <v>0</v>
       </c>
       <c r="L66" t="n">
-        <v>22752.76</v>
+        <v>392.8</v>
       </c>
       <c r="M66" t="n">
         <v>0</v>
@@ -6536,7 +6536,7 @@
         <v>0</v>
       </c>
       <c r="R66" t="n">
-        <v>-499.02</v>
+        <v>-282.65</v>
       </c>
       <c r="S66" t="n">
         <v>0</v>
@@ -6545,13 +6545,13 @@
         <v>0</v>
       </c>
       <c r="U66" t="n">
-        <v>7435.28</v>
+        <v>-82.2</v>
       </c>
       <c r="V66" t="n">
-        <v>-303.23</v>
+        <v>-192.82</v>
       </c>
       <c r="W66" t="n">
-        <v>1140.6</v>
+        <v>1294.55</v>
       </c>
       <c r="X66" t="n">
         <v>0</v>
@@ -6583,13 +6583,13 @@
         <v>0</v>
       </c>
       <c r="G67" t="n">
-        <v>-97.39</v>
+        <v>56.96</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>-253.74</v>
+        <v>-99.39</v>
       </c>
       <c r="J67" t="n">
         <v>0</v>
@@ -6598,7 +6598,7 @@
         <v>0</v>
       </c>
       <c r="L67" t="n">
-        <v>2604.25</v>
+        <v>1150.34</v>
       </c>
       <c r="M67" t="n">
         <v>0</v>
@@ -6616,7 +6616,7 @@
         <v>0</v>
       </c>
       <c r="R67" t="n">
-        <v>-319.25</v>
+        <v>-212.88</v>
       </c>
       <c r="S67" t="n">
         <v>0</v>
@@ -6625,13 +6625,13 @@
         <v>0</v>
       </c>
       <c r="U67" t="n">
-        <v>495.51</v>
+        <v>241.51</v>
       </c>
       <c r="V67" t="n">
-        <v>-222.64</v>
+        <v>-68.29</v>
       </c>
       <c r="W67" t="n">
-        <v>1289.41</v>
+        <v>1354.86</v>
       </c>
       <c r="X67" t="n">
         <v>0</v>
